--- a/Power BI/DAX Function /Text Functions/LEFT - Right - Mid.xlsx
+++ b/Power BI/DAX Function /Text Functions/LEFT - Right - Mid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60382B57-0A99-4BBC-8BFF-0A5850E38C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A5B5B-6AF4-44B4-A055-97FA0F85218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E851A98-8680-4297-BAF0-F4ADD50B66E8}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="C2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
